--- a/medicine/Enfance/Fantômette_chez_le_Roi/Fantômette_chez_le_Roi.xlsx
+++ b/medicine/Enfance/Fantômette_chez_le_Roi/Fantômette_chez_le_Roi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_chez_le_Roi</t>
+          <t>Fantômette_chez_le_Roi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fantômette chez le Roi est le 15e roman de la série humoristique Fantômette créée par Georges Chaulet.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_chez_le_Roi</t>
+          <t>Fantômette_chez_le_Roi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Notoriété</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1961 à 2000, les ventes cumulées des titres de Fantômette s'élèvent à 17 millions d'exemplaires, traductions comprises.
 Le roman Fantômette chez le Roi a donc pu être vendu à environ 200 000 exemplaires.
-Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais[2].
+Comme les autres romans, il a été traduit en italien, espagnol, portugais, en flamand, en danois, en finnois, en turc, en chinois et en japonais.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_chez_le_Roi</t>
+          <t>Fantômette_chez_le_Roi</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Personnages principaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Personnages « gentils » récurrents
 Françoise Dupont / Fantômette : héroïne du roman.
@@ -558,7 +574,7 @@
 Alpaga : homme de main du Furet.
 Bulldozer : homme de main du Furet.
 Autre personnage important
-Pierre de Taille[3] : industriel riche et naïf.</t>
+Pierre de Taille : industriel riche et naïf.</t>
         </is>
       </c>
     </row>
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_chez_le_Roi</t>
+          <t>Fantômette_chez_le_Roi</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Remarque : le résumé est basé sur l'édition cartonnée non abrégée parue en 1970 en langue française.
 Mise en place de l'intrigue (chapitres 1 à 3)
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fant%C3%B4mette_chez_le_Roi</t>
+          <t>Fantômette_chez_le_Roi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +651,9 @@
           <t>Remarque</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L'autre ennemi de Fantômette, le Masque d'argent, créera une machine appelée « Cosmotron » (Fantômette et le Masque d'argent - 1973).</t>
         </is>
